--- a/raw_ge_course.xlsx
+++ b/raw_ge_course.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="376">
   <si>
     <t>Code</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Instructor</t>
-  </si>
-  <si>
     <t>GEB 2001</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>This course is designed to broaden students’ perspectives on the frontier science and technology in quantum physics for students who have the basic physics background in Newtonian mechanics. It introduces students to fundamental concepts, principles, and discoveries in quantum mechanics without emphasizing on complicated mathematics. Students will learn concepts of quantization, wave-particle duality, uncertainty principle, quantum entanglement, quantum teleportation, and the applications of quantum mechanics in the real-world life. This course covers more on the historical developments of quantum mechanics, the main concepts and principles of quantum mechanics and its impacts on daily life and world view. So the topics such as Manhattan project, multi-world theory and observer effect, will be discussed on tutorials.</t>
   </si>
   <si>
-    <t>宋红彬 (SONG, Hongbin)</t>
-  </si>
-  <si>
     <t>GEB 2002</t>
   </si>
   <si>
@@ -49,9 +43,6 @@
     <t>Since ancient times, human beings have been curious about and fascinated with the remote sky, and this curiosity and fascination have boosted humans’ inquisition into the sky and invented various techniques in observational astronomy. The course is designed not only to present a volume of knowledge, but also to arouse students’ curiosity about how nature works. A wide range of topics will be covered, ranging from the origin of modern astronomy, observational astronomy to techniques in measuring celestial objects, from the solar system to stellar evolution. Moreover, traditional Chinese astronomy will be introduced.</t>
   </si>
   <si>
-    <t>Kam Moon Pang, Wing Hung Wong</t>
-  </si>
-  <si>
     <t>GEB 2003</t>
   </si>
   <si>
@@ -61,9 +52,6 @@
     <t>In recent three decades, archaeological findings in Shenzhen and Hong Kong are fruitful and unusually brilliant, which present the history as long as 7000 years and the relation between human and nature with early civilizing process of inland and coastal areas. In the course, we consider how we know what we think we know about ancient civilizations and cultures through observing the archaeological remains and discussing the meanings of archaeological remains in our contemporary societies. Not merely does the course introduce and examine the ancient culture in Shenzhen and Hong Kong from south China and southeast Asia’s perspectives, but also pay close attention to recognize archaeology—from “archaeology” presented by media to archaeology as a scientific discipline; from archaeological work process to archaeological research—and further to critically evaluate claims made about the past and understand how the past is used for modern and social agendas. Students are expected to observe remains in different archaeological cultures, to read some exemplary works by leading scholars, to know the sequential development through various objects including pottery, stone implement, jade, bone artefact and so on. No prior knowledge on archaeology is required for this course.</t>
   </si>
   <si>
-    <t>Qin CHEN</t>
-  </si>
-  <si>
     <t>GEB 2004</t>
   </si>
   <si>
@@ -73,9 +61,6 @@
     <t>Forms of technology are increasingly integrated into our lives, and this development is leading to new and challenging ethical issues. This course will familiarize students with philosophical debates surrounding the nature of technology itself and the ethical consequences of technological developments. Topics explored in the course will be both historical and future-oriented, including ethical issues relating to biotechnology, computing, technological inequality, autonomous vehicles, artificial intelligence, and other emerging technologies. No prior knowledge of technology or ethics is required.</t>
   </si>
   <si>
-    <t>Thomas CARROLL</t>
-  </si>
-  <si>
     <t>GEB 2101</t>
   </si>
   <si>
@@ -85,9 +70,6 @@
     <t>In contrast to the traditional biology which usually studied all living organisms on a macro scale, modern biological research more focus on human-, especially diseases-related microbiology, cell and molecular biology. The achievements of these studies have deeply influenced our daily life. This course targets the students from non-biology major and introduces four research areas including microbiology, cell biology, immunology, and molecular biology in nowadays biological science.  The ethical and social issues raised in application of these researches will also be discussed. After completing this course, the students should understand the scientific background of related topics encountered in everyday life and make informed judgment using critical thinking.</t>
   </si>
   <si>
-    <t xml:space="preserve">姜丽丽 </t>
-  </si>
-  <si>
     <t>GEB 2103</t>
   </si>
   <si>
@@ -97,9 +79,6 @@
     <t xml:space="preserve">During the past decades, food safety becomes a hot topic in China and attracts wide public concerns. Frequent food safety incidents made the public be anxious about the food, distrust the authorities and dislike the modern food techniques. This course is designed to help students understand the overview of food safety, develop critical thinking in food safety and make informed decision. Student will learn the major categories of food safety risks, the principles adopted by authorities to analyze food safety risk, the management system acknowledged by the industry and some techniques used in production. Many cases will also be dissected for applying the knowledge and principle to daily life.   </t>
   </si>
   <si>
-    <t xml:space="preserve">陈山泉 (CHEN, Shanquan) </t>
-  </si>
-  <si>
     <t>GEB 2104</t>
   </si>
   <si>
@@ -109,9 +88,6 @@
     <t xml:space="preserve">The course is designed to illustrate some basic principles of science, chemistry in particular (e.g., atomic structure, bonding, kinetics and drug action etc) via case studies of some celebrated accidental discoveries (and wild claims) in science. It also highlights the different approaches adopted by individual scientists and industrial/pharmaceutical research teams when they are confronted with mysterious phenomena. Real-life applications of some of the discoveries are discussed. </t>
   </si>
   <si>
-    <t>Glen HUI</t>
-  </si>
-  <si>
     <t>GEB 2105</t>
   </si>
   <si>
@@ -130,9 +106,6 @@
     <t xml:space="preserve">This course is an application-oriented course intended to familiarize students with basic principles and concepts in food product development. Through participation in interactive and in-class activities, students will learn basic knowledge of food formulation, food ingredients and components, ingredient interactions. They will also understand the way to conduct and terminate a project in an orderly manner, and apply the knowledge to daily life to solve basic problems related to food products (including the safety, storage and processing of foods). After this course, students will know how to successfully initiate, organize and carry out the development process of a food. The knowledge will be useful for the product development, quality control, regulation, and marketing of food and health products.   </t>
   </si>
   <si>
-    <t xml:space="preserve">Wing Fu Lai </t>
-  </si>
-  <si>
     <t>GEB 2109</t>
   </si>
   <si>
@@ -142,9 +115,6 @@
     <t>This course investigates fundamental developments of scientific knowledge with an emphasis on epistemological questions concerning the conceptual framework, the method of inquiry, the practice of investigation, the system of knowledge, the logic of argumentation, the mode of thought, the order of things, etc. In addition, class discussion may examine scientific assumptions in relation to the traditions of epistemology, the theory of knowledge, metaphysics, cosmology, natural philosophy, theology, philosophy of mind, socio-political thought, and intellectual history. The focus will vary according to the instructor, and reading materials may also include non-Western natural philosophy and scientific thoughts. In Term 1: 2022-2023, Dr. Kuan-yen Liu’s course examines the ideas, thoughts and theories in biology (particularly evolutionary biology), traces them to Western traditions of natural history, metaphysics and epistemology, and deals with the intersection between life science and philosophy. The course content includes both historical documents concerning zoology, palaeontology, geology, comparative anatomy, physiology, psychology and brain science as well as philosophical writings on what we now consider as biological questions. We will investigate how the conceptual frameworks and methods of inquiry in biological study derive from the traditions of Western philosophy, how major philosophers, like Aristotle, Descartes and Hume, consider or redefine the roles of man and animals in their systems of knowledge, and how biological sciences interact with sociology and political theory at epistemological, methodological and ethical levels. In class discussion, the combination of historical and philosophical approaches will shed light on the interdisciplinarity of life science in its historical development and unfold the reconceptualization of mankind and human society in biological study.</t>
   </si>
   <si>
-    <t>Kuanyen Liu</t>
-  </si>
-  <si>
     <t>GEB 2110</t>
   </si>
   <si>
@@ -154,9 +124,6 @@
     <t>Nanotechnology is science, technology, and engineering that conducted at the nanoscale, which is about 1 to 100 nanometers. The magic of nanomaterials is their nano-size endowed them with brand new and unique properties, which enable them to be applied in various fields. Undoubtedly, this emerging technology is changing and will continue to change our life dramatically. This course will introduce students some nano-related concepts and theories, and also the applications of nanomaterials in different areas, such as cosmetics, biomedicine, electronics, aerospace, etc. By the end of this course, students will get to acknowledge the uniqueness of nanotechnology and appreciate its significance in the improvement of our daily life and the development of our society.</t>
   </si>
   <si>
-    <t xml:space="preserve">季作玮 (Ji, Zuowei) </t>
-  </si>
-  <si>
     <t>GEB 2112</t>
   </si>
   <si>
@@ -166,9 +133,6 @@
     <t xml:space="preserve">This course explores the nature, possibility, source, structure, and value of knowledge (and of justified belief). We discuss a number of theories, such as internalism, externalism, contextualism, pragmatism, etc. The course helps students to form their own views on issues relating to knowledge and justify their views in a philosophically informed way. </t>
   </si>
   <si>
-    <t xml:space="preserve">Qin Wang </t>
-  </si>
-  <si>
     <t>GEB 2201</t>
   </si>
   <si>
@@ -178,9 +142,6 @@
     <t>This 3-unit course will introduce students to current topics with regards to evolution and environmental issues, which often stir debates among the public. Students will understand the scientific and historical background of a variety of issues, which range from how evolutionary ideas arose and were popularized, how people perceive evolution and creationism, how evolutionary ideas have changed the way we perceive human nature and human race, to the issues of how modern agriculture changes our environment, what climate change is and if it is real, the crisis of biodiversity loss, and other current issues in the era of Anthropocene. Students will improve their critical thinking skills, develop well-informed opinions on controversial issues, and engage themselves in the public debates surrounding these issues.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ya Wen ZOU </t>
-  </si>
-  <si>
     <t xml:space="preserve">GEB 2202 </t>
   </si>
   <si>
@@ -190,9 +151,6 @@
     <t xml:space="preserve">This course exposes students to a wide variety of scientific problems, which took centuries for the scientists to discover, observe, and solve. Students’ exposure to a number of changes on our earth empowers them to understand a broad range of scales under which the nature operates. Overall subject content and the addressed problems in earth sciences broaden students’ thinking and appreciation of the value of science that unravels the hidden side of the dynamic earth. </t>
   </si>
   <si>
-    <t xml:space="preserve">Xuran Zuo </t>
-  </si>
-  <si>
     <t>GEB 2203</t>
   </si>
   <si>
@@ -202,9 +160,6 @@
     <t xml:space="preserve">The challenge now for sustainability scientists and practitioner is: How can humanity transit to a world where human well-being is pursued while environmental degradation of the planet is minimised? What are the guiding principles in sustainability policy design at corporation and city levels? How do nowadays Chief Sustainability Officer implement sustainability-related strategies? What sustainability assessment methods can be used to quantify human impacts on our environment?  This course develops knowledge and understanding in next generation environmental sustainability frameworks, including ecological economy, circular economy, green growth, green finance, ESG investing, sustainable development goals, environmental ethics and inequalities, low-carbon transition etc. By taking this course, students will acquire hands-on methods to tackle real-world sustainability challenges in a work environment. </t>
   </si>
   <si>
-    <t xml:space="preserve">李默 (Li, Mo) </t>
-  </si>
-  <si>
     <t>GEB 2204</t>
   </si>
   <si>
@@ -223,9 +178,6 @@
     <t xml:space="preserve">This introductory course covers optics and photonics topics, including fundamental concepts, basic principles, and the technical fundamentals for relevant modern applications. The knowledge of light includes reflection, refraction, interference, diffraction, as well as the geometrical optics and information optics. The technology of light includes the application basis of light in sensing, communication, biomedicine, and other fields, as well as its scientific and technological development. This course is designed for undergraduate students from multiple disciplines. Students will understand the fundamentals and concepts of optics, photonics, and related technology. </t>
   </si>
   <si>
-    <t>Honghui ZHANG</t>
-  </si>
-  <si>
     <t>GEB 2310</t>
   </si>
   <si>
@@ -253,9 +205,6 @@
     <t>The development of chemistry has deepened our understanding of nature and also greatly improved our life, including eating habits and medical conditions. Meanwhile, the consequent problems of food safety and overtreatment, the lack of related background knowledge, as well as the one-sided or misleading accounts from the media all make the public misunderstand, dislike, or even fear chemistry. As consumers, understanding the basic principles and functions of the products (food and drug), their development history, and related policies make us choose and use more correctly. The introduction of chemistry knowledge about daily flavorings, drinks, and common medicines will be covered in this course. The associated discovery process and corresponding social influence will be presented as well, which tries to make the students realize the features and limitations of scientific discoveries, therefore to treat the influence of chemistry to our daily life more comprehensively and objectively. Besides, as a discipline based on experiments, students are required to try some simple preparation and titration projects.</t>
   </si>
   <si>
-    <t>Bei Cao</t>
-  </si>
-  <si>
     <t>GEB 2401</t>
   </si>
   <si>
@@ -265,9 +214,6 @@
     <t>Information is an integral part of our life. Without information we cannot acquire new knowledge to broaden our horizon. Companies will find it difficult to make accurate decisions about future changes in their business and markets. The medical industry would not be able to cure diseases. Search engines such as Google, Yahoo and Bing would not exist and social media would not proliferate. These are just some examples of the importance of information in our world today. Hence, in this course students will learn primarily how to manage information using current technologies, which may include wireless communications, cloud computing, and Internet of Things, among others. In addition, students will learn to make sense of big data using high level data analytics and visualisation tools. This course is programming- and Maths-free, and would serve as an excellent introduction to the intriguing world of data science and information management.</t>
   </si>
   <si>
-    <t>云天恒</t>
-  </si>
-  <si>
     <t>GEB 2402</t>
   </si>
   <si>
@@ -277,9 +223,6 @@
     <t>This course is not intended to teach students any advanced mathematical skills in solving complicated equations. As a general education course, it aims at providing students with a brief overview of mathematics in an understandable manner. Emphasis will be put on the influences of mathematics on our culture, society, science, technology and various human activities, e.g. abstract thinking, philosophy, politics, management, language, art etc. Materials will be given to students for thinking, applying and commenting. All students are welcome to take this course, including those outside the disciplines of mathematics, science and engineering. The most important thing is that you are curious about the roles of mathematics in our life.</t>
   </si>
   <si>
-    <t>卢锦明 (LO, Tony)</t>
-  </si>
-  <si>
     <t>GEB 2403</t>
   </si>
   <si>
@@ -307,9 +250,6 @@
     <t xml:space="preserve">We live in a world surrounded by data and technology. While China is massively investing in Artificial Intelligence, Data science is believed to be a key skill of the 21st century. Capturing, framing, and analyzing data is already a crucial challenge for companies and scientists. These skills are also critical for students since data science can be applied to discourse analysis, economic prediction, marketing, social sciences, and so forth. For those reasons, many universities in the US already offer “introduction to data science” as part of their general education program. As a data science GE class, this course provides the students with some basic proficiency in data analysis (organize, manage, examine, prepare, analyze, and visualize data using R studio). Students also discover how data science can help to understand social and natural phenomena in various domains by exploring real datasets (social science survey, titanic death toll, economic development indicators, health survey…etc). </t>
   </si>
   <si>
-    <t xml:space="preserve">Aurelien BOUCHER </t>
-  </si>
-  <si>
     <t>GEB 2501</t>
   </si>
   <si>
@@ -319,9 +259,6 @@
     <t>This is an introductory course to integrated circuits (IC), which is a base component within electronic devices. Students will gain knowledge of the scope, theoretical basis, design hierarchy, practical application and market structure of IC. Latest developments such as IC design for Apple products and artificial intelligence will be introduced for students’ better understanding of the importance of IC. The course will also provide laboratory sessions which will enable students to have hands on practice. This will allow them to gain a vivid impression of IC design and fabrication.</t>
   </si>
   <si>
-    <t>陈奕含</t>
-  </si>
-  <si>
     <t>GEB 2502</t>
   </si>
   <si>
@@ -331,9 +268,6 @@
     <t>Have you ever experienced any fascinating mathematical problems in real life but you do not know how to solve them? Would you like to know how mathematics approaches these problems? This course will give you a taste about those most fundamental methods in mathematics. Many interesting examples will be provided. Topics includes: logics, methods of proofs, mathematical induction, recursion, graphs, graph matching, graph coloring, sets, counting, binomial coefficients, inclusion-exclusion principle, functions, counting by mapping, and if time permitted, number sequences, modular arithmetic, Chinese remainder theorem etc.</t>
   </si>
   <si>
-    <t>饶广 (RAO, Guang), Pan Jia</t>
-  </si>
-  <si>
     <t>GEB 2503</t>
   </si>
   <si>
@@ -343,9 +277,6 @@
     <t>According to a report of United Nations, more than two-thirds of the world’s population will live in cities by 2050. In response to the enormous challenges of urbanization such as traffic congestion and environmental pollution, many cities embrace the Smart City concept to optimize city operations. This course aims to find out "What made Smart City smart" by exploring the key building blocks of Smart City, which are sensors, networks, and data analysis/presentation technologies. By taking this course, students are expected to understand what actually lies behind smart cities they are residing in.</t>
   </si>
   <si>
-    <t>Yolanda Wang, Ruizhi LIAO</t>
-  </si>
-  <si>
     <t>GEB 2504</t>
   </si>
   <si>
@@ -355,9 +286,6 @@
     <t>This course introduces students to science and technology studies (STS), an increasingly influential field that draws on sociological, anthropological, historical, and philosophical methods to analyze the relations and interactions between science, technology, and society. This course is structured into two sections. The first section reviews mainstream theories and critiques of STS. The second section explores the specificity of science as a social institution.</t>
   </si>
   <si>
-    <t>Yifan Cai</t>
-  </si>
-  <si>
     <t>GEB 2505</t>
   </si>
   <si>
@@ -367,9 +295,6 @@
     <t>This course introduces the fundamentals and contemporary developments of artificial intelligence (AI) as well as brain research and discusses the philosophical issues arising from these rapidly developing research fields. Topics include major approaches of AI, the Turing test, Searle and Dreyfus' critique of AI; fundamentals of neuroscience, techniques of brain imaging, the mapping of brain functions; the mind-brain relation, philosophical theories of mind and the nature of mental phenomena like consciousness and free will. The aim is to help students to reflect on the potentials and limits of AI and brain research and to achieve a deeper understanding of ourselves as human beings.</t>
   </si>
   <si>
-    <t>Kin Lok CHAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">GEB 2601 </t>
   </si>
   <si>
@@ -388,9 +313,6 @@
     <t xml:space="preserve">According to the division of human technological prehistory (the stone age, the bronze age and the iron age), we can perceive the importance of materials to our civilization. Each new era of human history is accelerated by a new material. Materials are closely related with our daily life. As an interdisciplinary field, materials science is the design and discovery of new materials, particularly solids. Materials science emphasizes understanding how the history of a material (its processing) influences its structure, and thus the material's properties and performance.  This course aims to introduce a series of materials that have great influence in our daily life, the knowledge of material characterization methods and the dimension of materials, in order to help students understand the beauty of materials. </t>
   </si>
   <si>
-    <t xml:space="preserve">婧 邹 </t>
-  </si>
-  <si>
     <t>GEB 3101</t>
   </si>
   <si>
@@ -400,9 +322,6 @@
     <t>With the social development and the improvement of living standard, cosmetics have become daily necessities for people of all ages and all groups. Cosmetics industry has also become an important part of the emerging fine chemical industry. Consumers not only should use the cosmetic products, but need to know why they are effective as well. For modern people, the importance of understanding the ingredients and functions of cosmetics is beyond doubt. Several facets of cosmetic science and technology will be covered in this course. This course will briefly explain the relationship between skin and cosmetics, as well as the safety and efficacy assessment. Product categories such as cleaners, moisturizers, whitening agents, anti-aging agents, sunscreens and makeups will be introduced. Students will be required to analyze the formulation and function of the cosmetics on the market. And students will also be invited to make lip balms, moisturizing cream and other skin care products. Emphasis in the course will be placed on students’ basic understanding of the formulation and functions of common cosmetics.</t>
   </si>
   <si>
-    <t>婧 邹 (Yolanda Wang)</t>
-  </si>
-  <si>
     <t>GEB 3102</t>
   </si>
   <si>
@@ -412,9 +331,6 @@
     <t>This course discusses contemporary controversies arising from biological and medical sciences and technologies. We will see now the debate between general moral principles extends to the biomedical context. A wide range of issues may be discussed, including genetic modification, organ market, patient autonomy, euthanasia and assisted suicide, reproduction, surrogation, etc. It helps future biomedical practitioners make ethically informed decisions and equip otherwise interested students with philosophical tools to reflect on these issues.</t>
   </si>
   <si>
-    <t>Qin Wang</t>
-  </si>
-  <si>
     <t>GEB 3115</t>
   </si>
   <si>
@@ -433,9 +349,6 @@
     <t>This course covers the basic concepts, processes and principles of major environmental and resource management problems in two general categories in the contemporary world. One is natural hazards primarily caused by extreme events in the natural environment. The other is environmental change and sustainability driven primarily by human activities and economic development. The course is divided into three parts. First, we examine the physical and human dimensions of natural hazards including typhoons, tornadoes, floods and droughts. The focus is on the causes of these natural hazards, their geographical distribution, risk and disaster to human society, and human response to prepare, prevent and mitigate negative impacts. Second, we introduce the causes, trends, impacts and human responses of global warming and climate change. Thirdly, we discuss environmental protection and sustainability in the context of sustainable development, water pollution and management, air pollution and solid waste management. Study of the interaction between human society and living environment will help students better understand the human-environment relationship and the importance of sustainable development. The importance of geographical regions in understanding environmental problems and their socio-economic impacts is highlighted throughout the course. While the coverage will be broad and global, case studies of a variety of environmental and resource management challenges in China are emphasized.</t>
   </si>
   <si>
-    <t>Yong Qin Chen</t>
-  </si>
-  <si>
     <t>GEB 3301</t>
   </si>
   <si>
@@ -445,9 +358,6 @@
     <t>This course aims at providing students with a better understanding of the physics of spacetime, the relationship between physics and philosophy, and the history and philosophy of science. It will focus on the philosophical foundation of spacetime physics, both classical and relativistic. This is an exceptional rich topic, for it has attracted great thinkers in science and philosophy, such as Descartes, Galileo, Newton, Leibniz, Kant, and Einstein. We will focus on many deep questions, including: Are space and time (or spacetime) genuine substances? Does time “flow”? What is the “shape” of space? Is time travel possible or paradoxical? Does quantum nonlocality conflict with relativity?</t>
   </si>
   <si>
-    <t>Xiaoqian HU</t>
-  </si>
-  <si>
     <t>GEB 3401</t>
   </si>
   <si>
@@ -466,9 +376,6 @@
     <t>In this course, the diverse research methods for science and technology studies (STS) will be introduced and discussed, including historical studies, case studies, comparative studies, anthropology studies, grounded theory, and phenomenology and so on. Structural functionalism and social constructionism, the major two approaches in STS will be introduced. Both classical and new emerging literature will be used as the materials to demonstrate the differences and similarities between these two approaches as well as their relationship with positivism in choosing qualitative research methods mentioned above. Students will also learn how these qualitative research methods should be conducted in specific issue related to STS, and the possible problems they may face when these methods applied in the Chinese social contexts.</t>
   </si>
   <si>
-    <t>Xue Shi Li</t>
-  </si>
-  <si>
     <t>GEC 2001</t>
   </si>
   <si>
@@ -478,9 +385,6 @@
     <t>This course explores China’s encounters with the West from the 7th century to the 19th. It introduces a series of case studies on Sino-Western exchanges in cultural domains. Major topics will be discussed through an interdisciplinary approach to bring together several fields in religion, philosophy, ethics, arts, and science. Visual materials and fieldtrips will be complementary to lectures. The course emphasizes on a cross-cultural perspective that goes beyond the limitations of traditional Euro-centric or China-centred views.</t>
   </si>
   <si>
-    <t>赵蕊娟 (ZHAO, Ruijuan)</t>
-  </si>
-  <si>
     <t>GEC 2002</t>
   </si>
   <si>
@@ -490,9 +394,6 @@
     <t>“No man is an island”. As social animals, people live, work, communicate and love with each other. This course aims to enlighten students with sociological imagination to understand social structures  and logics of human life.  Various social groups and phenomena (i.e. “left-over” ladies, sexual minorities, beauty industry, Foxconn workers’ suicide cases, global food system, community currency, cooperatives, etc.) will be examined, interweaving with introduction of core findings and insights from classic and up-to-date masterpieces. Students will also be instructed to observe, analyse, reflect on and solve the problems in their everyday lives from a sociological perspective. Jumping out from daily life, the course will then examine the social inequalities (which actually closely relate to everybody) occurring global-wide under the current political economies. Upon participating in field observations, students are expected to have more experiential understanding on the relationship between economic growth and social justice. Students are particularly encouraged to start their independent thinking and exploration on how university students/ graduates could creatively contribute in enhancing the common well-being.</t>
   </si>
   <si>
-    <t>韩雨晨 (HAN, Yuchen)</t>
-  </si>
-  <si>
     <t>GEC 2003</t>
   </si>
   <si>
@@ -502,9 +403,6 @@
     <t>This course investigates the power of “situation”: under what circumstances, will otherwise healthy, well-educated, smart people do unthinkable and crazy things (such as committing murder and suicide, showing no effort to rescue person(s) in danger, conforming to the cruel authority). Human social behaviors and social influence, including attitude and attitude change, conformity, interpersonal attraction, prosocial behaviors, are explored. Stinging questions such as “can we prevent violence and prejudice to make a better world” are probed. It is designed to help students understand human behaviors and attitudes on a deeper level, to apply the social influence knowledge to our daily life, to address social problems with a sensitive and scientific mind, and make a constructive difference in the society.</t>
   </si>
   <si>
-    <t>李涛 (LI, Victoria)</t>
-  </si>
-  <si>
     <t>GEC 2101</t>
   </si>
   <si>
@@ -514,9 +412,6 @@
     <t>This is an introductory course and examines the rise of Western society from 1500 to the start of the twentieth century. The course will consider how and why western institutions and ideas have become so influential; how western culture has turned into a global international culture; economic transformation, cultural conflict, and the political strife that came with this process of western expansion.</t>
   </si>
   <si>
-    <t>No instructor</t>
-  </si>
-  <si>
     <t>GEC 2102</t>
   </si>
   <si>
@@ -526,9 +421,6 @@
     <t>According to Pierre Bourdieu, “the particular difficulties encountered by the sociology of sport: it is disdained by sociologist, and despised by sportspeople”. Nonetheless, sports sociology can help to depict the particularity of one society, culture and history. This course, based on the specific case of China, wants to show how Sports play a political and symbolic role in the construction of Chinese national identity from beginning of the 20th century until now. In the first part, we will discuss how the “sports” imported from western nation and contributed to the nation building in China. The second part will be dedicated to sport education in totalitarian China (1949-1979). The third part will be dedicated to Elite sport at the age of opening and reforms area (1979-to now). Through this course, students will understand how State and politic are shaping a cultural phenomenon like sport, which is less universal than it seems to be.</t>
   </si>
   <si>
-    <t>Aurelien BOUCHER</t>
-  </si>
-  <si>
     <t>GEC 2103</t>
   </si>
   <si>
@@ -538,9 +430,6 @@
     <t>This course introduces students to contemporary global society. It is however above all a historical survey that explores the political, economic, cultural, legal, and technological changes of the twentieth century. The class additionally addresses the links between these large-scale events and the common experiences of everyday life. Also designed to teach the essential skills of historical scholarship, this course instructs students on how to assess different types of primary sources, assess arguments, write summaries, integrate historical materials, and conduct basic historical research.</t>
   </si>
   <si>
-    <t>Gregory Jones-Katz</t>
-  </si>
-  <si>
     <t>GEC 2104</t>
   </si>
   <si>
@@ -550,9 +439,6 @@
     <t>This course combines 14 lectures and some analytic reading assignments We will try to read some articles about trans-cultural, historical research, and humanity. In the lecture, we want to help students to understand more details of their own daily life and to be curious about the root of the living environment which surrounds them. Important to liberal education, history can not only help students to get more knowledge about their root in the past, but also help them to have a more deep vision for the future. To understand the world with a historical view, with more logical thinking, is a requirement of educated people in the modern world. In this course, we will learn about daily life in Ancient China in detail. It’s so familiar to us, but also so different in some aspects in some details. In this learning process, students will have background knowledge of daily life of our ancestors, in their rituals of life, childhood, sickness, religion, love, and death. If you look deeply, with some curiosities, you can find the beauty of the culture in our daily life. In this course, students will learn their root in the Chinese cultural tradition.</t>
   </si>
   <si>
-    <t>Ichiao Wang, Qin CHEN, 赵蕊娟 (ZHAO, Ruijuan), 雷仕伟 (LEI, Shiwei)</t>
-  </si>
-  <si>
     <t>GEC 2105</t>
   </si>
   <si>
@@ -562,9 +448,6 @@
     <t>Social science is expected to establish universal explanations of society, but social scientists hold contesting theories. Radical critics even argue that there is no objectivity in social science. Neither can there be a consensus on how to identify the family of social science. To a large extent, the cross-disciplinary diversity is the historical consequence of institutionalisation and professionalisation for centuries. This course, from a transnational perspective, sheds light on the historical development of social science from the Enlightenment to the present. We are going to: (1) discuss influential theorists such as Karl Marx, Max Weber, and Thomas Kuhn; (2) assess their legacies that constantly transcend national borders; (3) conceptualise the institutionalisation and professionalisation; (4) look into the state’s intervention. In short, it is an introduction to social science in global history. It is also a self-reflexive course, aiming to reveal the long ignored relationship between history and social science in our time.</t>
   </si>
   <si>
-    <t>冯先祥 (FENG, John)</t>
-  </si>
-  <si>
     <t>GEC 2106</t>
   </si>
   <si>
@@ -574,9 +457,6 @@
     <t>“Making of the Modern World” is a historical survey of the twentieth century that introduces students to the major global historical processes of the late modern era. This introduction is accomplished primarily through lectures, which cover the interconnected and interdependent ways in which major political, economic, cultural, legal, and technological changes occurred. The course begins in Europe and then moves on to cover Asia, Africa, South America, and Latin America, providing a nuanced and global perspective. The class addresses the links between large-scale historical events, such as the First and Second World Wars, and the common experiences of everyday life. Also designed to teach the essential skills of historical scholarship, “Making of the Modern World” instructs students on how to assess different types of primary sources and arguments, write effective summaries of these sources, integrate various historical materials, and conduct basic historical research.</t>
   </si>
   <si>
-    <t>Allen Grace Elizabeth</t>
-  </si>
-  <si>
     <t>GEC 2107</t>
   </si>
   <si>
@@ -586,9 +466,6 @@
     <t>This course examines the social and political nature of human beings. Topics to be discussed may include regime types, political virtues, justice, natural right and law, sovereignty, community, and culture. Topics and texts will vary by instructor.</t>
   </si>
   <si>
-    <t>Christopher Kluz</t>
-  </si>
-  <si>
     <t>GEC 2108</t>
   </si>
   <si>
@@ -598,9 +475,6 @@
     <t>How do we know about the past? How do we access the past through what is available today, be it memory, texts, or objects? How to collect information about complex historical events, the French Revolution of 1789 or the Haitian Revolution of 1791 for instance? Is it possible to summarise even an ‘eventless’ period with only a few coherent narratives, such as the year 1587 ce in the imperial court of the Ming Dynasty? Getting to know about the past is a complicated process that demands careful work. This course introduces the basic problems and methods of research into history. It will unfold around two keywords. First, it will discuss what historians call ‘sources’, as well as how to access them, evaluate them, and analyse them for research. Second, it will introduce the concept of ‘historiography’, namely the ways historians organise sources—often fragmented information—into narratives about the past through analyses. Through the course, students are expected to develop a basic understanding of historical research and its elementary skills. It will also help students cultivate their critical ability to draw arguments from limited sources, to efficiently interrogate the sources, and to understand the complexity of history.</t>
   </si>
   <si>
-    <t>Chang Liu</t>
-  </si>
-  <si>
     <t>GEC 2109</t>
   </si>
   <si>
@@ -610,9 +484,6 @@
     <t>Throughout China’s long history, a few themes went on stage repeatedly. These themes were reiterated, renewed, and reformed. This course provides an overview of Chinese history since antiquity. It introduces these recurring themes by the periods of dynasties. We highlight the continuities and permutations of political systems, the diverse strands of thought which Confucianism often dominated, and the culture of the gentry class. The course is organised primarily around lectures, which are joined by tutorials. It will train students to do the close reading of provided primary materials. Students are also expected to learn the key topics in the study of Chinese history.</t>
   </si>
   <si>
-    <t>雷仕伟 (LEI, Shiwei)</t>
-  </si>
-  <si>
     <t>GEC 2110</t>
   </si>
   <si>
@@ -631,9 +502,6 @@
     <t>The Guangdong-Hong Kong-Macao Bay Area is one of the most important economic belts in China and the world. It is vital to understand the history of the Bay Area since the Ming and Qing Dynasties, because this long period of history not only reflects how the local society shaped its national image and expressed its own identity, but also records China's interaction with the world. This course aims to explore the historical process of social and cultural developments of Guangdong, Hong Kong and Macao since the Ming and Qing Dynasties from perspectives of global history and regional history, focusing on the convergence of Sino-west cultures, local and national identity, political system, commerce and trade, religion and festivals, as well as migrant society.</t>
   </si>
   <si>
-    <t>Di Mao</t>
-  </si>
-  <si>
     <t>GEC 2112</t>
   </si>
   <si>
@@ -643,9 +511,6 @@
     <t>This course combines 12 lectures and 6 tutorials. Through lectures on the topics of dresses, food, houses, travel, consumptions and the imperial examination system, etc., this course will lead the students to understand the main categories of daily life since Song and the Dynasties afterwards (960-1840). Students are required to read some original materials, including historical archives, fictions and opera dramas, provide their interpretation, and share their reflections on the relationship between self and society, and learn to analysis the approaches by which daily life was explained, operated, and manipulated.</t>
   </si>
   <si>
-    <t>杨彦妮 (Yang, Yanni)</t>
-  </si>
-  <si>
     <t>GEC 2113</t>
   </si>
   <si>
@@ -655,9 +520,6 @@
     <t>This course consists of an analysis of the impact of epidemic diseases on societies and culture from the Black Death to COVID-19 outbreak. Themes include: infectious diseases and their impact on society; the development of public health measures; the social reactions of mass hysteria and violence; and the issue of emerging and re-emerging diseases. We will discuss the complex historical relations between epidemic disease outbreaks and their cultural, social and political context, describe the experiences of populations and communities living with epidemics under diverse environmental, social and economic conditions, analyse the history of epidemics within a global context of movements of people, ideas and commerce. Students will learn how and why different countries have responded to infectious disease outbreaks in different ways, identify how larger structural factors, such as the economy, trade, labor movements, gender and class, are related to an epidemic disease outbreak, and what lessons can be learnt from global pandemics in the past.</t>
   </si>
   <si>
-    <t>Corinne Doria</t>
-  </si>
-  <si>
     <t>GEC 2114</t>
   </si>
   <si>
@@ -667,9 +529,6 @@
     <t>Hong Kong is a unique city in the history of China. After the Opium War, Hong Kong developed from a small fishing village to a cosmopolitan city in the recent 100 years. It is a modern city that retains its Chinese traditions and a Chinese city that is integrated into the world system. Traditional Chinese culture, modernization, colonialism, and post-colonialism are all key words to understand this city. This course will introduce the history of Hong Kong's political, economic, and cultural development, discuss the challenges and coping mechanisms that Hong Kong has encountered in the process of urban development, and then understand the connections and communications between modern China and the world through Hong Kong.</t>
   </si>
   <si>
-    <t>Yong Chang Peng</t>
-  </si>
-  <si>
     <t>GEC 2201</t>
   </si>
   <si>
@@ -697,9 +556,6 @@
     <t>This course is double coded with GLB1101. This course is designed as an introduction and a road map for the Global Studies major. This course is interdisciplinary and thematic. It tends to provide multiple theoretical frameworks and makes close study and analysis of the political, economic, social, historical and cultural patterns that are defining the modern world. This course will offer diverse and meaningful explanations of globalization, along with its various problems and potential solutions.</t>
   </si>
   <si>
-    <t>遥 宋</t>
-  </si>
-  <si>
     <t>GEC 2205</t>
   </si>
   <si>
@@ -709,9 +565,6 @@
     <t>This course is for students who have hitherto had no exposure in the academic field of International Relations. It seeks to introduce students to the basic concepts and understanding of the major issue areas of contemporary international relations. It introduces students to the basics of understanding and producing theories in IR, the canonical theories of IR: Realism, Liberalism and Marxism, the relatively new and increasingly influential theory-constructivism, ways in which such theories approach central topics in IR including sovereignty, power, war, peace, IPE, New World (dis-)Order, humanitarian intervention, International Law and Terrorism, a good basis from which to appreciate the theoretical schools of thought in the study of international relations, a strong foundation in the study of international politics as a basis for further study.</t>
   </si>
   <si>
-    <t>党和苹 (DANG, Heping)</t>
-  </si>
-  <si>
     <t>GEC 2206</t>
   </si>
   <si>
@@ -721,9 +574,6 @@
     <t>This course is double coded with GLB2101. This course is intended to introduce students to the research frontier in the study of global political economy and contemporary issues that defines the future trends of global political economy in 21st century. It may also cover relevant and important topics not covered by other courses in this stream. In addition, it provides an opportunity for teachers to introduce their own expertise and more recent research areas and findings to students thus broadening their academic and intellectual horizon. Students are expected to do pre-readings, presentations, in-class debate and discussions, and ultimately conduct their own research on specific topics.</t>
   </si>
   <si>
-    <t>Xinning SONG</t>
-  </si>
-  <si>
     <t>GEC 2301</t>
   </si>
   <si>
@@ -733,9 +583,6 @@
     <t>This course is looks at the role of social psychology to understand our everyday lives from a historical and socio-cultural perspective. It introduces students to key topics, concepts and research within this area to illustrate the contribution that social psychology has made to our understanding of the individual mind and behaviour as well as interpersonal and intergroup relations in relation to a variety of topics e.g. altruism, migration, social justice, media, work, prejudice etc</t>
   </si>
   <si>
-    <t>Stavroula Tsirogianni</t>
-  </si>
-  <si>
     <t>GEC 2401</t>
   </si>
   <si>
@@ -754,9 +601,6 @@
     <t>This course offers a general introduction to various rites and rituals in Early China. Through investigations into the social context where traditional ritual system took shape, this course intends to explore the religious, political and social functions of ancient rites and rituals, such as sacrificial rites祭礼, wedding ceremonies昏礼 and funerals丧礼, etc. Both transmitted and excavated materials, including the Book of Songs诗经, the Book of Rites仪礼, bronze vessels and bamboo manuscripts, will be adopted as essential sources to detect how the rites and rituals were perceived, interpreted and practiced among ancient social groups.</t>
   </si>
   <si>
-    <t>金方廷</t>
-  </si>
-  <si>
     <t>GEC 3001</t>
   </si>
   <si>
@@ -766,9 +610,6 @@
     <t>This is an introductory course of the history of Buddhism. The course will introduce the foundation of Buddhism in India, the spread of Buddhism through the Silk Road, and the development of Buddhism in China. The language of Buddhism is a vital method of its spreading and development. The course will also introduce the language of Buddhism, from the discussion of Sanskrit and Prakrit in India, to Gandhari on the Silk Road, and its influence on Chinese. The students will have an overall understanding of the history of Buddhism and know the role that language had played in the spreading of Buddhism.</t>
   </si>
   <si>
-    <t>Bohan Li, YiQiao WANG</t>
-  </si>
-  <si>
     <t>GEC 3101</t>
   </si>
   <si>
@@ -787,9 +628,6 @@
     <t>This course explores consumer culture and everyday objects from a historical perspective, beginning with the emergence of a bourgeois consumer society in eighteenth-century Europe and then tracing the global expansion of mass consumption up to the present. We’ll discuss a broad range of topics, including fashion, shopping, cars, popular music, tourism, and advertising. In particular, we’ll focus on how consumption has intersected with pivotal political, economic, social, and cultural transformations. How did King Louis XIV of France wield political power through fashion? Why did shopping become a predominantly feminine rather than masculine pastime? How did European soap advertisements promote imperialism and racism? Why did the U.S. deploy movies, music, and even kitchens as a form of soft power during the Cold War? And what did the popularity of the Zhongshan suit (中山装) have to do with strengthening nationalism in China? This course is also designed to teach the essential skills of historical scholarship. It will help students learn how to assess different types of primary and secondary sources, evaluate scholarly arguments, integrate historical materials into writing, and conduct basic historical research.</t>
   </si>
   <si>
-    <t>Allen Grace Elizabeth, YiQiao WANG</t>
-  </si>
-  <si>
     <t>GEC 3103</t>
   </si>
   <si>
@@ -817,9 +655,6 @@
     <t>With China’s development, the understanding of modern Chinese history has become ever more relevant because of its profound influence on contemporary China. Among the many perspectives for understanding modern China, social relief is particularly worthy of attention. Essentially, social relief is people's response to disasters, hygiene, poverty, and other issues. The history we are experiencing tells us that people's response to a major public health event can have a huge impact on the economy, social life, and even the world order. This course will be based on modern China, with the emergence, development, and transformation of modern social relief as its core content. It explores people's responses to disasters, hygiene, and other related social issues, and examines how those responses have profoundly affected modern China. This course requires students to read academic works and original materials in order to cultivate the ability to understand and analyze historical issues and then to understand the state, social structure, and culture of modern China through the perspective of social relief. Moreover, with the development of global crises such as the polarization between the rich and the poor and climate change, relief activities will affect more people in future society. For students interested in social relief activities, this course will provide historical reference points.</t>
   </si>
   <si>
-    <t>Bin Chen</t>
-  </si>
-  <si>
     <t>GEC 3106</t>
   </si>
   <si>
@@ -847,9 +682,6 @@
     <t>This course examines the cultural history of China. Confucian, Daoist, and Buddhist traditions are parsed in the historical context. The course focuses on transitional periods when intellectual landscape changed dramatically, including the Warring States, Han and Six Dynasties, and Song-Liao-Jin-Yuan-Ming. It aims to enhance students’ understanding of Chinese history and thought, as well as to improve students’ analytical skills and critical thinking over historical materials, both primary and secondary sources.</t>
   </si>
   <si>
-    <t>吕陈童 (Lu, Chentong)</t>
-  </si>
-  <si>
     <t>GEC 3109</t>
   </si>
   <si>
@@ -859,9 +691,6 @@
     <t>This course will study the long history of growing interconnection between various parts of the world since 1500. We will examine how such global connections involved not only trade of commodities but also transfer of peoples, cultures, ideas and technologies.</t>
   </si>
   <si>
-    <t>张缪斯 (Zhang, Miaosi)</t>
-  </si>
-  <si>
     <t>GEC 3401</t>
   </si>
   <si>
@@ -880,9 +709,6 @@
     <t>This course aims to examine the cultural practices and development in Modern China from the perspective of visual culture. Visual materials, including photographs, films, lithographs, advertisements will engage you in the intellectual and art trends, political culture, the local diversity and the national unity. This course has dual themes: firstly, visual materials will be focused to represent the transformation in political, social and cultural environments of China from late Qing to the twenty-first century. Secondly, visual material will not merely be treated as the reflection of the political and historical situation. The complex relationships among the arts, political developments and historical backgrounds will be discussed so as to address the dynamics in knowledge production. You are expected to develop necessary skill to analyze China’s art and social issues, and to widen your aesthetic vision.</t>
   </si>
   <si>
-    <t>李潇雨 (LI, Xiaoyu)</t>
-  </si>
-  <si>
     <t>GEC 3403</t>
   </si>
   <si>
@@ -892,9 +718,6 @@
     <t>How to be human, and study humanity, in a world where   worlds collide? This course introduces students to the human sciences through the lens of socio-cultural anthropology, the field that studies the diversity of peoples’ cultures and behaviors around the world. We will survey a broad range of topics of contemporary interest, such as economics, sexual identity, cultural appropriation, gender, tourism and globalization. Through these topics students will acquire an understanding of the commitments and sensibilities that inform the contemporary human sciences. The underlying perspective the course adopts, and which the myriad materials point to, is the dynamic relation between cultural diversity and human nature. Accordingly, the course will give significant attention to fundamental philosophical and ethical questions in the human sciences. Is there an underlying human nature shared by all, e.g., are human beings primarily driven by self-interest and self-maximization? Is there a singular and over-arching trajectory to human history? How does one account for cultural diversity? How do different cultures pose and resolve these sorts of questions?</t>
   </si>
   <si>
-    <t>Gautam Ghosh, YiQiao WANG</t>
-  </si>
-  <si>
     <t>GEC 3404</t>
   </si>
   <si>
@@ -946,9 +769,6 @@
     <t>Medical Humanities</t>
   </si>
   <si>
-    <t>no instructor</t>
-  </si>
-  <si>
     <t>GEC 3701</t>
   </si>
   <si>
@@ -958,9 +778,6 @@
     <t>The orientation of this course is towards China’s economic development in the period of the People’s Republic through the prism of historical and geopolitical contexts. Meanwhile brief consideration will be given to the pre-PRC context of the changes that have taken place during the early modern times. Where appropriate, special emphasis will be placed on the nature, rationale and impact of the economic reforms implemented in China since 1978.</t>
   </si>
   <si>
-    <t>澄 金</t>
-  </si>
-  <si>
     <t>GEC 3702</t>
   </si>
   <si>
@@ -1006,9 +823,6 @@
     <t>This course will include content on individual and family development across the lifespan. Specific emphasis will be given to developmentally appropriate and atypical transitions related to common concerns in psychology. The course will also explore some of the more commonly used personality assessment measures, cultural influences on development and personality theory. Finally, this course will provide an insight into various ways of enhancing a person's self-esteem and self-image.</t>
   </si>
   <si>
-    <t>峰 钱</t>
-  </si>
-  <si>
     <t>GED 2101</t>
   </si>
   <si>
@@ -1027,9 +841,6 @@
     <t>This course is double coded with PHI2102. How should you confront your own death? Is it possible to lead a meaningful life in the face of absurdity? How can an individual live in an authentic way? This course will address these questions, among others, through the reading of philosophical and literary texts that belong to the “existentialist” movement. Focusing on themes of the individual, freedom, authenticity, and self-other relations, this course will cover major philosophers in 19th and 20th century western Philosophy including Kierkegaard, Nietzsche, Heidegger, Sartre, Camus, Buber, and de Beauvoir.</t>
   </si>
   <si>
-    <t>Lucas Scripter</t>
-  </si>
-  <si>
     <t>GED 2103</t>
   </si>
   <si>
@@ -1057,9 +868,6 @@
     <t>This course explores major trends and developments in Western intellectual history, including its origins, implications, and criticisms from a variety of philosophical perspective and analysis of related cultural phenomena that may include: science, religion, literature, and art. In this course we will look at and discuss some Classic texts and ideas of Western Culture and specifically attempt to trace the development of Western Culture from two sources (Greek and Judeo-Christian thought) and reveal how these combine and conflict in order to understand what makes Western Culture unique.</t>
   </si>
   <si>
-    <t>Christopher Kluz, Olivia Pu</t>
-  </si>
-  <si>
     <t>GED 2107</t>
   </si>
   <si>
@@ -1069,9 +877,6 @@
     <t>This course explores some central problems in metaphysics and philosophy of mind. Varying according to the instructor, the course may address theories on the connection and relationship between the mind (the mental) and the body (non-mental physical reality), the topic of intentionality, the question of qualia, artificial intelligence, personal identity, free will, causation, appearance and reality, objects and their properties, space and time, and the nature of ultimate reality.</t>
   </si>
   <si>
-    <t>Czerkawski Bartlomiej</t>
-  </si>
-  <si>
     <t>GED 2110</t>
   </si>
   <si>
@@ -1108,9 +913,6 @@
     <t>The Zhuangzi text is one of the great feats of the human literary and philosophical imagination to emerge from the ancient world. This course studies in detail the literary and philosophical features of the Zhuangzi text, while introducing some key pieces of traditional commentary and some of the contemporary academic scholarship on the text, and while giving a general sense of its broader reception history. The course will teach exegetical skills transferable to approaching difficult textual materials.</t>
   </si>
   <si>
-    <t>John Robert Williams</t>
-  </si>
-  <si>
     <t>GED 2116</t>
   </si>
   <si>
@@ -1120,9 +922,6 @@
     <t>This course focuses on the Book of Changes, an important classic in Chinese culture. Through reading texts, listening to lectures, classroom discussion, and writing papers, students learn the background, contents, thinking mode, philosophical wisdom, and application value of the classic, and come to know its impact on Chinese culture and world civilization. The course aims at the education of cultural knowledge, exploration of world and life in a comparative horizon and retrospect-prospect perspective of history and future, cultivation of humanistic concern, and enhancement of comprehensive qualities. The course contains 12 lectures, and the teaching language is Chinese Putonghua.</t>
   </si>
   <si>
-    <t>Zongrang Bai</t>
-  </si>
-  <si>
     <t>GED 2117</t>
   </si>
   <si>
@@ -1132,9 +931,6 @@
     <t>Does history have a pattern or follow any general principle? Can we arrive at objective truth in a historically changing world? How do historical processes shape what counts as knowledge? Such questions have been discussed by philosophers of history. This course will introduce students to the central issues of the philosophy of history and the major thinkers who have understood history from a philosophical point of view, e.g., Kant, Hegel, Marx, Heidegger, Gadamer, Foucault, the Frankfurt School, Derrida, and Gumbrecht.</t>
   </si>
   <si>
-    <t>Gregory Jones-Katz, Lucas Scripter</t>
-  </si>
-  <si>
     <t>GED 2118</t>
   </si>
   <si>
@@ -1153,9 +949,6 @@
     <t>This course provides an introduction to the field of Environmental Humanities by exploring various case studies in order to ground students with a vocabulary for comprehending and discussing our current global climate crisis.</t>
   </si>
   <si>
-    <t>Evander PRICE</t>
-  </si>
-  <si>
     <t>GED 2121</t>
   </si>
   <si>
@@ -1192,9 +985,6 @@
     <t>This course will introduce students to the culture of Ancient Greece, in the way of learning and reflecting the myths about the Olympian gods and heroes, which is always considered as the origins of western thoughts. To understand a culture better, we need to go back to its beginning period, the myths period. By doing so, we’ll learn not only interesting and mythical tales, but also the way of understanding the world and society among early humans. The topics shown in the tales are eternal, such as human nature and fate, conflicts between justice and law, which still deserve further discussion nowadays. Due to the characteristics of myths in all cultures (lack of systematic writing in early days), this course will involve many literary works, like ancient Greek dramas, as well as paintings and sculptures dated back that time.</t>
   </si>
   <si>
-    <t>Xiao Zhen CHEN</t>
-  </si>
-  <si>
     <t>GED 2202</t>
   </si>
   <si>
@@ -1213,9 +1003,6 @@
     <t>Double coded with HSS2010. This course introduces you to the world of literature in English, covering works of fiction, poetry and drama. We will analyze the significance of each literary work for its time and for our time. In the process, you will acquire techniques and language skills for literary appreciation. You are encouraged to read literary works from different time periods and different cultural backgrounds to broaden and deepen your understanding of the human experience. No prerequisite course is required.</t>
   </si>
   <si>
-    <t>Foongha Yap</t>
-  </si>
-  <si>
     <t>GED 2302</t>
   </si>
   <si>
@@ -1225,9 +1012,6 @@
     <t>This course addresses various academic issues arising from a reflective encounter with the tragedy Hamlet by William Shakespeare. The is wide-ranging in scope because Hamlet also serves as an extended case study for allowing students to encounter and explore different philosophical standpoints on specific aspects and themes raised by this play. Hamlet is claimed to be the second most studied English language text second only to the Bible. The play itself is reported to have been in performance somewhere in the world continuously since 1601. This course invites students to explore both the contents of this play, its plotline, characterisation and figurative language, as well as a selection of theoretical perspectives upon its implications as developed by a selection of eminent theorists ranging from Hegel through to Hans Gadamer, Adorno and Carl Schmitt and contemporary feminist readings. Only extracts that are relatively straightforward and open to a clear paraphrase will be selected. These short extracts will also be summarised in lectures to aid with their comprehension at undergrad class level. These extracts do not require a full understanding of the theorist’s overall positions and students will be provided with a basic summary and paraphrase in the lectures aid comprehension. Students will be required to read, discuss and write about the full text of this play together with an assessment of the perspectives taken by a variety of commentators and critics using a wide range of texts in philosophy and critical theory. In particular, students will explore the requirements of a critical analysis of competing interpretations of the significance of the entire play, as well as the character and centrality to be afforded to existentialist issues development by romanticism. Students will also explore constitutional issues developed by realist approaches of Carl Schmitt and others, contrasting these with the psychological/psychoanalytical questions about Hamlet as developed by Lacan, Jones and others. In this respect, Hamlet serves as an extended running case study to illustrate both the character and possible limits of a range of interpretive standpoints and theoretical positions. Students will also address some literary and linguistic dimensions of this play including the role and challenges of its figurative language operating as literary devices vital to the expression of a range of sometimes enigmatic meanings. Reading materials will be selected from influential commentators and critics including those in which they dispute each other’s interpretations of Hamlet. Emphasis will be placed on students’ capacity to respond intuitively, analytically as well as critically to the primary and secondary texts in written as well as presentations.</t>
   </si>
   <si>
-    <t>Michael Geoffrey SALTER</t>
-  </si>
-  <si>
     <t>GED 2401</t>
   </si>
   <si>
@@ -1237,9 +1021,6 @@
     <t>This course is an introduction to the aesthetic history of film. It examines how types of films and their styles have changed in relation to how they are made, shown, and distributed. It traces the major developments in the medium across the 20th century in an international context, ranging from the silent era to the increasing globalization of media industries near the end of the century. The course introduces students to the elements of film style and basic analytical concepts to treat masterpieces of cinema in relation to their immediate historical context.</t>
   </si>
   <si>
-    <t>Wilson Frederick Booth</t>
-  </si>
-  <si>
     <t>GED 2402</t>
   </si>
   <si>
@@ -1258,9 +1039,6 @@
     <t>Cognitive psychology is the study of how the brain processes information. In more everyday terms, it is about the mental processes involved in acquiring and making use of knowledge and experience gained from our senses. The main processes involved in cognition are perception, learning, memory storage, retrieval and thinking. All of these various aspects of cognition have been extensively studied in the laboratory, but in recent years there has been a growing interest in the application of cognitive psychology to situations in real life. This approach is known as applied cognitive psychology, and it is concerned with the investigation of how cognitive processes affect our behaviour and performance in real-life settings. It is important that cognitive research should be carried out in real-world settings wherever possible, to ensure the “ecological validity” of our laboratory findings. In other words, research findings should be demonstrably true in the real world, and not just under laboratory conditions. Doing so applied cognitive psychologists aim to achieve two things (1) to acquire psychological knowledge and insights that can be used in the real world and thus produce solutions to real problems; and (2) to inform theoretical approaches to cognition, offering a broader and more realistic basis for our understanding of cognitive processes (i.e., providing everyday life insights on our cognitive functioning to improve theoretical models of cognition). In this course we will look at how our cognitive abilities function in real-life situations. We will discuss everyday memory such as our autobiographical memory and how reliable our memory is in regard to eyewitness testimonies and police interviews; We will look at various memory strategies to improve memory performance (e.g. spacing, mnemonics, retrieval facilitation and inhibition); We will cover our abilities to identify faces (recognition memory), and our information-processing (working memory) and decision making abilities; How our cognitive abilities are affected by biological processes (e.g. circadian rhythms, menstrual cycle) and various types of drugs (legal and illegal).</t>
   </si>
   <si>
-    <t>Serge Hoefeijzer</t>
-  </si>
-  <si>
     <t>GED 3001</t>
   </si>
   <si>
@@ -1270,9 +1048,6 @@
     <t>This course is double coded with PHI3001. In this course we will study several different ethical theories in philosophy. Ethical theories are theories about right and wrong, moral and immoral, good and bad. They tell us what is right behavior and what is wrong behavior, about how we should live as morally good people. For example, is it always wrong to lie? Is it okay if we kill people? Should the government take money from rich people and give it to poor people? Is it wrong to kill animals for food? Ethical theories try to give answers to these questions (yes/no), and more importantly, they try to give arguments for their answers. After we study these different ethical theories, students will be required to apply them to interesting social and moral issues we have in today’s society, and have presentation and discussion on a variety of issues including Euthanasia, Abortion, Stem Cell Research, Animal Rights, Equality and Discrimination, the Death Penalty, Pornography, War, Torture, Environmental Ethics, etc.</t>
   </si>
   <si>
-    <t>Jin LEE</t>
-  </si>
-  <si>
     <t>GED 3002</t>
   </si>
   <si>
@@ -1309,9 +1084,6 @@
     <t>This course is an introduction to Chinese poetry, mainly focusing on historical language researches via analyzing literary masterpieces of classical Chinese texts. Students will be trained to analyze natural speech, prose as well as poetry in terms of new techniques and approaches developed recently. In this way, the students can better understand how the language influences the way we interpret both history and culture.</t>
   </si>
   <si>
-    <t>赵璞嵩</t>
-  </si>
-  <si>
     <t>GED 3306</t>
   </si>
   <si>
@@ -1321,9 +1093,6 @@
     <t>This course offers a critical survey of some of the masterpieces in Chinese fiction, including the historical development, narrative characteristics, ideological content, and cultural influence of different sub-genres of fiction. The texts of this course include short stories, such as Chuanqi of Tang dynasty, Huaben of Song, Yuan and Ming dynasty, and the famous "si da ming zhu" (the Four Great Classical Novels). Students will be encouraged to develop their ability to apply close reading and critical thinking to general issues of literary tradition. This course also aims to help students understand complex situations and intellectual currents related to Chinese fiction and enhance their appreciation of Chinese literature and traditional culture.</t>
   </si>
   <si>
-    <t>Cheng Chuan LIN</t>
-  </si>
-  <si>
     <t>GED 3307</t>
   </si>
   <si>
@@ -1333,9 +1102,6 @@
     <t>The masterpieces of classical Chinese opera are rich in aesthetic and cultural values. This course introduces the characteristics of the genre and focuses on the art, thought, social aspect and historical context of the classical plays of China. Students will conduct a close reading of Dou Er’s Tragedy, The Story of the Western Wing, The Peony Pavilion and The Peach Blossom Fan, as well as watch the clips of traditional Chinese Opera, including Kunqu Opera and vernacular dramas. Through the analysis of the texts and the appreciation of performance, this course guides students to (1) identify the literary, artistic and cultural values of classical Chinese opera, (2) understand the culture, politics, thought and spirit of Late-Imperial China, and (3) develop a comparative perspective on classical Chinese opera and modern art.</t>
   </si>
   <si>
-    <t>亮亮 陈</t>
-  </si>
-  <si>
     <t>GED 3308</t>
   </si>
   <si>
@@ -1363,9 +1129,6 @@
     <t>This course is a practical and theoretical investigation into how to “write with video” about audiovisual media. Traditionally, media criticism and scholarship has assumed a written form and therefore faced the difficulty of translating the images and sounds of its original object into words. But with the explosion of digital platforms for distributing videos online and easily accessible equipment, critics are increasingly able to present their insights directly—to show with the work itself rather than tell through description. The course examines audiovisual media in two senses: as a topic of critical reflection and as a mode of presentation. It introduces students to the traditional concerns of media criticism, such as interpretation, evaluation, formal analysis, and socio-political reflection, and situates them in contemporary media industries and their surrounding discourses. It examines rhetorical strategies for conveying original thoughts about film and media texts—both verbally and audiovisually. Like the written essay, video form creates its own challenges, including how to select materials and combine them with voice-over, text, music, visual effects, or other video techniques. Students will view and evaluate examples of this mode of criticism and work from those models to construct their own analyses and interpretations of film, television, or any other media works. Lectures will sharpen our attention to aspects of media to consider for sophisticated criticism. In tutorial sessions, we will learn basic skills in videomaking, including using Adobe Premiere Pro, which students will use to complete several short, simple video assignments that each analyze an aspect of a work of media.</t>
   </si>
   <si>
-    <t>Olivia Pu, Wilson Frederick Booth</t>
-  </si>
-  <si>
     <t>GED 3402</t>
   </si>
   <si>
@@ -1373,9 +1136,6 @@
   </si>
   <si>
     <t>A survey of western classical music</t>
-  </si>
-  <si>
-    <t>陈永华</t>
   </si>
   <si>
     <t>GED 3403</t>
@@ -1400,7 +1160,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1753,7 +1513,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1762,7 +1522,6 @@
     <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -1775,1757 +1534,1381 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="2" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="2" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="2" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="2" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="2" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="2" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="2" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="2" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="2" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="2" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="2" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="2" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="2" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="2" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="2" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="2" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="2" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="2" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="2" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="2" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="2" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="2" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="2" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="2" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="2" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="2" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="2" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="2" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="2" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="2" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="2" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="2" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="2" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="2" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="2" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="2" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="2" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="2" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="2" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="2" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>150</v>
+        <v>239</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="2" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="2" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>303</v>
+        <v>244</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>150</v>
+        <v>245</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="2" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="2" t="s">
-        <v>308</v>
+        <v>249</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="2" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="2" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="2" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>319</v>
+        <v>258</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="2" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>322</v>
+        <v>261</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="2" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>158</v>
+        <v>265</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="2" t="s">
-        <v>327</v>
+        <v>266</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="2" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>87</v>
+        <v>271</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="2" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="2" t="s">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="2" t="s">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="2" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="2" t="s">
-        <v>348</v>
+        <v>284</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>351</v>
+        <v>286</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="2" t="s">
-        <v>352</v>
+        <v>287</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>289</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="2" t="s">
-        <v>355</v>
+        <v>290</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>356</v>
+        <v>291</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="2" t="s">
-        <v>358</v>
+        <v>293</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="2" t="s">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="2" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>368</v>
+        <v>301</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="2" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="2" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>368</v>
+        <v>307</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>379</v>
+        <v>310</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="2" t="s">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="2" t="s">
-        <v>383</v>
+        <v>314</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>190</v>
+        <v>316</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="2" t="s">
-        <v>386</v>
+        <v>317</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>387</v>
+        <v>318</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="2" t="s">
-        <v>389</v>
+        <v>320</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>390</v>
+        <v>321</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>392</v>
+        <v>322</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="2" t="s">
-        <v>393</v>
+        <v>323</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>19</v>
+        <v>325</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="2" t="s">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>397</v>
+        <v>327</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>399</v>
+        <v>328</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="2" t="s">
-        <v>400</v>
+        <v>329</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>401</v>
+        <v>330</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>403</v>
+        <v>331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="2" t="s">
-        <v>404</v>
+        <v>332</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>405</v>
+        <v>333</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>407</v>
+        <v>334</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="2" t="s">
-        <v>408</v>
+        <v>335</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>409</v>
+        <v>336</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>407</v>
+        <v>337</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="2" t="s">
-        <v>411</v>
+        <v>338</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>412</v>
+        <v>339</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>414</v>
+        <v>340</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="2" t="s">
-        <v>415</v>
+        <v>341</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>416</v>
+        <v>342</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>418</v>
+        <v>343</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="2" t="s">
-        <v>419</v>
+        <v>344</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>420</v>
+        <v>345</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>182</v>
+        <v>346</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="2" t="s">
-        <v>422</v>
+        <v>347</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>423</v>
+        <v>348</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>19</v>
+        <v>349</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="2" t="s">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>426</v>
+        <v>351</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>352</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="2" t="s">
-        <v>428</v>
+        <v>353</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>429</v>
+        <v>354</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>431</v>
+        <v>355</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="2" t="s">
-        <v>432</v>
+        <v>356</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>433</v>
+        <v>357</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>435</v>
+        <v>358</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="2" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>439</v>
+        <v>361</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="2" t="s">
-        <v>440</v>
+        <v>362</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>441</v>
+        <v>363</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>42</v>
+        <v>364</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="2" t="s">
-        <v>443</v>
+        <v>365</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>444</v>
+        <v>366</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>42</v>
+        <v>367</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="2" t="s">
-        <v>446</v>
+        <v>368</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>447</v>
+        <v>369</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>449</v>
+        <v>370</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="2" t="s">
-        <v>450</v>
+        <v>371</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>451</v>
+        <v>372</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>453</v>
+        <v>373</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="2" t="s">
-        <v>454</v>
+        <v>374</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>455</v>
+        <v>375</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D126" s="2"/>
+        <v>375</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
